--- a/LawFirm/DocumentBlanks.xlsx
+++ b/LawFirm/DocumentBlanks.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Лист" sheetId="1" r:id="Rbbb3bd2cf2e14708"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Лист" sheetId="1" r:id="R6631e2c2c13142c2"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -19,31 +19,7 @@
     <x:t>document1</x:t>
   </x:si>
   <x:si>
-    <x:t>1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>document2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2</x:t>
-  </x:si>
-  <x:si>
     <x:t>3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>blank2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>document1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>document2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2</x:t>
   </x:si>
   <x:si>
     <x:t>3</x:t>
@@ -150,42 +126,8 @@
       </x:c>
     </x:row>
     <x:row r="4">
-      <x:c r="B4" s="1" t="s">
+      <x:c r="C4" s="0" t="s">
         <x:v>4</x:v>
-      </x:c>
-      <x:c r="C4" s="1" t="s">
-        <x:v>5</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5">
-      <x:c r="C5" s="0" t="s">
-        <x:v>6</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="6">
-      <x:c r="A6" s="0" t="s">
-        <x:v>7</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="7">
-      <x:c r="B7" s="1" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="C7" s="1" t="s">
-        <x:v>9</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="8">
-      <x:c r="B8" s="1" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="C8" s="1" t="s">
-        <x:v>11</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="9">
-      <x:c r="C9" s="0" t="s">
-        <x:v>12</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
